--- a/biology/Zoologie/Arawacus/Arawacus.xlsx
+++ b/biology/Zoologie/Arawacus/Arawacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arawacus est  un genre d'insectes lépidoptères - ou papillons de la famille des Lycaenidae, sous-famille des Theclinae, tribu des Eumaeini et du groupe du genre Thereus.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrite par l'entomologiste William James Kaye en 1904[1].
-L'espèce type pour le genre est Papilio linus (Sulzer)
-Synonymie
-Polyniphes (Kaye, 1904)[2]
-Dolymorpha (Holland, 1931)[3]
-Tigrinota (Johnson, 1992)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrite par l'entomologiste William James Kaye en 1904.
+L'espèce type pour le genre est Papilio linus (Sulzer)</t>
         </is>
       </c>
     </row>
@@ -543,59 +553,101 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Polyniphes (Kaye, 1904)
+Dolymorpha (Holland, 1931)
+Tigrinota (Johnson, 1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arawacus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces [5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces 
 Arawacus aethesa (Hewitson, 1867)
 Arawacus aetolus (Sulzer, 1776)
 Arawacus binangula (Schaus, 1902)
 Arawacus dolylas (Cramer, 1777)
-Arawacus dumenilii (Godart, [1824])
+Arawacus dumenilii (Godart, )
 Arawacus ellida (Hewitson, 1867)
 Arawacus euptychia (Draudt, 1920)
 Arawacus hypocrita (Schaus, 1913)
 Arawacus jada (Hewitson, 1867)
 Arawacus leucogyna (C. &amp; R. Felder, 1865)
-Arawacus lincoides (Draudt, 1917)[6]
+Arawacus lincoides (Draudt, 1917)
 Arawacus meliboeus (Fabricius, 1793)
 Arawacus separata (Lathy, 1926)
 Arawacus sito (Boisduval, 1836)
 Arawacus tadita (Hewitson, 1877)
 Arawacus tarania (Hewitson, 1868)
-Arawacus togarna (Hewitson, 1867)[7]
+Arawacus togarna (Hewitson, 1867)
 			Arawacus aetolus
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Arawacus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arawacus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Amérique du Sud.
 </t>
